--- a/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>188.263671875</v>
+        <v>179.3711090087891</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>235.9882202148438</v>
+        <v>221.4233093261719</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>288.4777221679688</v>
+        <v>268.1627807617188</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>338.3236389160156</v>
+        <v>315.64501953125</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>377.0223999023438</v>
+        <v>366.7037048339844</v>
       </c>
     </row>
     <row r="19">
@@ -798,7 +798,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>48.94189453125</v>
+        <v>60.78783798217773</v>
       </c>
     </row>
     <row r="41">

--- a/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>179.3711090087891</v>
+        <v>153.9814147949219</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>221.4233093261719</v>
+        <v>198.2087707519531</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>268.1627807617188</v>
+        <v>250.9958038330078</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>315.64501953125</v>
+        <v>307.2640686035156</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>366.7037048339844</v>
+        <v>358.6536865234375</v>
       </c>
     </row>
     <row r="19">
@@ -798,7 +798,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>60.78783798217773</v>
+        <v>50.30056381225586</v>
       </c>
     </row>
     <row r="41">

--- a/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>153.9814147949219</v>
+        <v>141.0870056152344</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>198.2087707519531</v>
+        <v>180.0666809082031</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>250.9958038330078</v>
+        <v>237.6216735839844</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>307.2640686035156</v>
+        <v>295.5669555664062</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>358.6536865234375</v>
+        <v>350.306884765625</v>
       </c>
     </row>
     <row r="19">
@@ -798,7 +798,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>50.30056381225586</v>
+        <v>53.95630645751953</v>
       </c>
     </row>
     <row r="41">

--- a/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Lula_artesanal_reconstruido.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>141.0870056152344</v>
+        <v>190.6360168457031</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>180.0666809082031</v>
+        <v>235.2349853515625</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>237.6216735839844</v>
+        <v>286.8832397460938</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>295.5669555664062</v>
+        <v>332.0028686523438</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>350.306884765625</v>
+        <v>372.5611877441406</v>
       </c>
     </row>
     <row r="19">
@@ -798,7 +798,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>53.95630645751953</v>
+        <v>51.20626831054688</v>
       </c>
     </row>
     <row r="41">
